--- a/compare.xlsx
+++ b/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eswhykay/Documents/Python/WeCompliance_site_package_vFinal4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CC8A88-7A3B-2F4F-BB3D-6CF0E5FFE041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF4A4F-EFD6-384E-B113-60581A9748BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,49 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>LRa05 (ATCC PTA-126815)</t>
-  </si>
-  <si>
-    <t>LGG (DSM 33156，ATCC 53103)</t>
-  </si>
-  <si>
-    <t>HN001 (DR20，ATCC SD5675)</t>
-  </si>
-  <si>
-    <t>GR-1</t>
-  </si>
-  <si>
-    <t>R0011 (CNCM I-1720)</t>
+    <t>BLa80 (ATCC PTA-126817)</t>
+  </si>
+  <si>
+    <t>Bb-12 (DSM 15954)</t>
+  </si>
+  <si>
+    <t>HN019 (DR10, ATCC SD 5674)</t>
+  </si>
+  <si>
+    <t>Bi-07 (ATCC SD 5220)</t>
+  </si>
+  <si>
+    <t>B420 (ATCC SD 6685)</t>
   </si>
   <si>
     <t>🇨🇳中国</t>
+  </si>
+  <si>
+    <t>Y 普通食品
+Y 婴幼儿食品</t>
   </si>
   <si>
     <t>Y 普通食品
 N 婴幼儿食品</t>
   </si>
   <si>
-    <t>Y 普通食品
-Y 婴幼儿食品</t>
-  </si>
-  <si>
     <t>🇺🇸美国</t>
   </si>
   <si>
-    <t>Y FDA GRAS GRN. 1240
-（共通过8份鼠李糖乳酪杆菌申报，包括LRa05）</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1013</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 281（婴儿配方）
-Y FDA GRAS GRN. 288</t>
+    <t>Y FDA GRAS GRN. 1239
+（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 49（婴儿配方）
+Y FDA GRAS GRN. 856</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 445</t>
   </si>
   <si>
     <t>🇪🇺欧盟</t>
@@ -119,6 +119,10 @@
   <si>
     <t>N Novel Food (De novos aliment)申报
 Y 食品补充剂</t>
+  </si>
+  <si>
+    <t>N Novel Food (De novos aliment)申报
+N 食品补充剂</t>
   </si>
   <si>
     <t>🇨🇱智利</t>
@@ -291,10 +295,6 @@
 Y 天然健康产品申报，NPN No.80093760</t>
   </si>
   <si>
-    <t>N Novel Food (De novos aliment)申报
-N 食品补充剂</t>
-  </si>
-  <si>
     <t>N 可食用菌属名单未列入</t>
   </si>
   <si>
@@ -308,7 +308,7 @@
   </si>
   <si>
     <t>Y Food Ingredients《韩国食品法典》
-Y INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分</t>
+Y INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分 (May help to improve bowel movements)</t>
   </si>
   <si>
     <t>Y Live microorganisms 菌种白名单</t>
@@ -317,30 +317,34 @@
     <t>N Health Supplement</t>
   </si>
   <si>
-    <t>BLa80 (ATCC PTA-126817)</t>
-  </si>
-  <si>
-    <t>Bb-12 (DSM 15954)</t>
-  </si>
-  <si>
-    <t>HN019 (DR10, ATCC SD 5674)</t>
-  </si>
-  <si>
-    <t>Bi-07 (ATCC SD 5220)</t>
-  </si>
-  <si>
-    <t>B420 (ATCC SD 6685)</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1239
-（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 49（婴儿配方）
-Y FDA GRAS GRN. 856</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 445</t>
+    <t>LRa05 (ATCC PTA-126815)</t>
+  </si>
+  <si>
+    <t>LGG (DSM 33156，ATCC 53103)</t>
+  </si>
+  <si>
+    <t>HN001 (DR20，ATCC SD5675)</t>
+  </si>
+  <si>
+    <t>GR-1</t>
+  </si>
+  <si>
+    <t>R0011 (CNCM I-1720)</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 1240
+（共通过8份鼠李糖乳酪杆菌申报，包括LRa05）</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 1013</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 281（婴儿配方）
+Y FDA GRAS GRN. 288</t>
+  </si>
+  <si>
+    <t>Y Food Ingredients《韩国食品法典》
+Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》(UREX (+RC-14): May help to proliferate vaginal beneficial flora and to suppress pathogenic bacteria)</t>
   </si>
   <si>
     <t>Y 食品法规1985申报（附表十二A第26A条益生菌培养物）
@@ -351,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +386,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -429,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,14 +460,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,11 +478,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +807,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -854,20 +869,20 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -875,19 +890,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -895,19 +910,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -935,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -947,26 +962,26 @@
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -974,20 +989,20 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -998,16 +1013,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1015,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>26</v>
@@ -1032,107 +1047,107 @@
     </row>
     <row r="11" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>79</v>
@@ -1152,7 +1167,7 @@
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>80</v>
@@ -1170,9 +1185,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>81</v>
@@ -1192,62 +1207,62 @@
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1274,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1294,19 +1309,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1314,38 +1329,38 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1353,19 +1368,19 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1393,19 +1408,19 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1413,19 +1428,19 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1466,227 +1481,227 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>47</v>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>55</v>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>57</v>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1715,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1735,19 +1750,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1755,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1828,19 +1843,19 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1868,19 +1883,19 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1906,222 +1921,222 @@
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>47</v>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>53</v>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>55</v>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>57</v>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eswhykay/Documents/Python/WeCompliance_site_package_vFinal4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF4A4F-EFD6-384E-B113-60581A9748BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF26BA6-4EB0-514D-83DA-9795F11FA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="68800" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC99" sheetId="1" r:id="rId1"/>
@@ -25,231 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>BLa80 (ATCC PTA-126817)</t>
-  </si>
-  <si>
-    <t>Bb-12 (DSM 15954)</t>
-  </si>
-  <si>
-    <t>HN019 (DR10, ATCC SD 5674)</t>
-  </si>
-  <si>
-    <t>Bi-07 (ATCC SD 5220)</t>
-  </si>
-  <si>
-    <t>B420 (ATCC SD 6685)</t>
+    <t>BC99 (ATCC PTA-126829)</t>
+  </si>
+  <si>
+    <t>GBI-30,6086 (BC30, NBRC3887)</t>
+  </si>
+  <si>
+    <t>Unique IS-2 (MTCC 5260, ATCC PTA-11748)</t>
+  </si>
+  <si>
+    <t>LactoSpore (MTCC 5856, BC SBC-37-01)</t>
+  </si>
+  <si>
+    <t>SNZ 1969（MTCC 5724, LMG S-27484）</t>
   </si>
   <si>
     <t>🇨🇳中国</t>
   </si>
   <si>
-    <t>Y 普通食品
-Y 婴幼儿食品</t>
-  </si>
-  <si>
-    <t>Y 普通食品
-N 婴幼儿食品</t>
+    <t>Y 普通食品</t>
   </si>
   <si>
     <t>🇺🇸美国</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1239
-（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 49（婴儿配方）
-Y FDA GRAS GRN. 856</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 445</t>
-  </si>
-  <si>
-    <t>🇪🇺欧盟</t>
-  </si>
-  <si>
-    <t>Y 普通食品
-Y 膳食补充剂</t>
-  </si>
-  <si>
-    <t>🇬🇧英国</t>
-  </si>
-  <si>
-    <t>🇦🇺澳洲</t>
-  </si>
-  <si>
-    <t>Y Traditional Food
-Y TGA 补充药品</t>
-  </si>
-  <si>
-    <t>🇳🇿新西兰</t>
-  </si>
-  <si>
-    <t>Y Traditional Food</t>
-  </si>
-  <si>
-    <t>🇷🇺俄罗斯</t>
-  </si>
-  <si>
-    <t>🇨🇦加拿大</t>
-  </si>
-  <si>
-    <t>N Novel Food/Non-Novel Food申报
-N 天然健康产品申报</t>
-  </si>
-  <si>
-    <t>N Novel Food/Non-Novel Food申报
-Y 天然健康产品申报</t>
-  </si>
-  <si>
-    <t>🇧🇷巴西</t>
-  </si>
-  <si>
-    <t>N Novel Food (De novos aliment)申报</t>
-  </si>
-  <si>
-    <t>Y Novel Food (De novos aliment)申报
-Y 食品补充剂</t>
-  </si>
-  <si>
-    <t>N Novel Food (De novos aliment)申报
-Y 食品补充剂</t>
-  </si>
-  <si>
-    <t>N Novel Food (De novos aliment)申报
-N 食品补充剂</t>
-  </si>
-  <si>
-    <t>🇨🇱智利</t>
-  </si>
-  <si>
-    <t>Y 食品菌株注册
-Y 保健品菌株注册</t>
-  </si>
-  <si>
-    <t>不详</t>
-  </si>
-  <si>
-    <t>🇹🇷土耳其</t>
-  </si>
-  <si>
-    <t>Y 保健品菌株注册</t>
-  </si>
-  <si>
-    <t>N 保健品菌株注册</t>
-  </si>
-  <si>
-    <t>🇹🇭泰国</t>
-  </si>
-  <si>
-    <t>Y 可食用菌种名单IDF No.377/2002</t>
-  </si>
-  <si>
-    <t>Y 可食用菌种名单IDF No.377/2003</t>
-  </si>
-  <si>
-    <t>Y 可食用菌种名单IDF No.377/2004</t>
-  </si>
-  <si>
-    <t>Y 可食用菌种名单IDF No.377/2005</t>
-  </si>
-  <si>
-    <t>Y 可食用菌种名单IDF No.377/2006</t>
-  </si>
-  <si>
-    <t>🇮🇩印尼</t>
-  </si>
-  <si>
-    <t>Y 可用于食品加工的菌株列表
-N 保健品用菌株申报</t>
-  </si>
-  <si>
-    <t>Y 可用于食品加工的菌株列表
-Y 保健品用菌株申报</t>
-  </si>
-  <si>
-    <t>🇲🇾马来西亚</t>
-  </si>
-  <si>
-    <t>N 食品法规1985申报（附表十二A第26A条益生菌培养物）</t>
-  </si>
-  <si>
-    <t>Y 食品法规1985申报（附表十二A第26A条益生菌培养物）</t>
-  </si>
-  <si>
-    <t>🇵🇭菲律宾</t>
-  </si>
-  <si>
-    <t>Y 可食用菌属名单</t>
-  </si>
-  <si>
-    <t>🇯🇵日本</t>
-  </si>
-  <si>
-    <t>Y 食品添加剂 (LAB Concentrate)
-N 特定保健食品名单
-N 功能性表示食品（产品）申报</t>
-  </si>
-  <si>
-    <t>Y 食品添加剂 (LAB Concentrate)
-Y 特定保健食品名单
-Y 功能性表示食品（产品）申报</t>
-  </si>
-  <si>
-    <t>Y 食品添加剂 (LAB Concentrate)
-N 特定保健食品名单
-Y 功能性表示食品（产品）申报</t>
-  </si>
-  <si>
-    <t>🇰🇷韩国</t>
-  </si>
-  <si>
-    <t>Y Food Ingredients《韩国食品法典》
-Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》</t>
-  </si>
-  <si>
-    <t>🇪🇬埃及</t>
-  </si>
-  <si>
-    <t>Y Bacteria菌种白名单</t>
-  </si>
-  <si>
-    <t>🇿🇦南非</t>
-  </si>
-  <si>
-    <t>Y Health Supplements 菌种白名单</t>
-  </si>
-  <si>
-    <t>📚USP</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>BC99 (ATCC PTA-126829)</t>
-  </si>
-  <si>
-    <t>GBI-30,6086 (BC30, NBRC3887)</t>
-  </si>
-  <si>
-    <t>Unique IS-2 (MTCC 5260, ATCC PTA-11748)</t>
-  </si>
-  <si>
-    <t>LactoSpore (MTCC 5856, BC SBC-37-01)</t>
-  </si>
-  <si>
-    <t>SNZ 1969（MTCC 5724, LMG S-27484）</t>
-  </si>
-  <si>
-    <t>Y 普通食品</t>
   </si>
   <si>
     <t>Y Self-Affirmed GRAS
@@ -274,15 +76,48 @@
 Y FDA GRAS GRN. 864（婴儿）</t>
   </si>
   <si>
+    <t>🇪🇺欧盟</t>
+  </si>
+  <si>
     <t>N 普通食品
 Y 膳食补充剂</t>
   </si>
   <si>
+    <t>🇬🇧英国</t>
+  </si>
+  <si>
+    <t>Y 普通食品
+Y 膳食补充剂</t>
+  </si>
+  <si>
+    <t>🇦🇺澳洲</t>
+  </si>
+  <si>
     <t>Y Traditional Food
 N TGA 补充药品</t>
   </si>
   <si>
+    <t>Y Traditional Food
+Y TGA 补充药品</t>
+  </si>
+  <si>
+    <t>🇳🇿新西兰</t>
+  </si>
+  <si>
+    <t>Y Traditional Food</t>
+  </si>
+  <si>
+    <t>🇷🇺俄罗斯</t>
+  </si>
+  <si>
     <t>N 禁用，暂无申报渠道</t>
+  </si>
+  <si>
+    <t>🇨🇦加拿大</t>
+  </si>
+  <si>
+    <t>N Novel Food/Non-Novel Food申报
+N 天然健康产品申报</t>
   </si>
   <si>
     <t>Y Non-Novel Food申报</t>
@@ -295,7 +130,82 @@
 Y 天然健康产品申报，NPN No.80093760</t>
   </si>
   <si>
+    <t>🇧🇷巴西</t>
+  </si>
+  <si>
+    <t>N Novel Food (De novos aliment)申报
+N 食品补充剂</t>
+  </si>
+  <si>
+    <t>Y Novel Food (De novos aliment)申报
+Y 食品补充剂</t>
+  </si>
+  <si>
+    <t>N Novel Food (De novos aliment)申报
+Y 食品补充剂</t>
+  </si>
+  <si>
+    <t>🇨🇱智利</t>
+  </si>
+  <si>
+    <t>Y 食品菌株注册
+Y 保健品菌株注册</t>
+  </si>
+  <si>
+    <t>不详</t>
+  </si>
+  <si>
+    <t>🇹🇷土耳其</t>
+  </si>
+  <si>
+    <t>Y 保健品菌株注册</t>
+  </si>
+  <si>
+    <t>N 保健品菌株注册</t>
+  </si>
+  <si>
+    <t>🇹🇭泰国</t>
+  </si>
+  <si>
+    <t>Y 可食用菌种名单IDF No.377/2002</t>
+  </si>
+  <si>
+    <t>Y 可食用菌种名单IDF No.377/2003</t>
+  </si>
+  <si>
+    <t>Y 可食用菌种名单IDF No.377/2004</t>
+  </si>
+  <si>
+    <t>Y 可食用菌种名单IDF No.377/2005</t>
+  </si>
+  <si>
+    <t>Y 可食用菌种名单IDF No.377/2006</t>
+  </si>
+  <si>
+    <t>🇮🇩印尼</t>
+  </si>
+  <si>
+    <t>Y 可用于食品加工的菌株列表
+N 保健品用菌株申报</t>
+  </si>
+  <si>
+    <t>Y 可用于食品加工的菌株列表
+Y 保健品用菌株申报</t>
+  </si>
+  <si>
+    <t>🇲🇾马来西亚</t>
+  </si>
+  <si>
+    <t>N 食品法规1985申报（附表十二A第26A条益生菌培养物）</t>
+  </si>
+  <si>
+    <t>🇵🇭菲律宾</t>
+  </si>
+  <si>
     <t>N 可食用菌属名单未列入</t>
+  </si>
+  <si>
+    <t>🇯🇵日本</t>
   </si>
   <si>
     <t>N 食品添加剂申报
@@ -303,6 +213,9 @@
 N 功能性表示食品（产品）申报</t>
   </si>
   <si>
+    <t>🇰🇷韩国</t>
+  </si>
+  <si>
     <t>Y Food Ingredients《韩国食品法典》
 N INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分</t>
   </si>
@@ -311,12 +224,27 @@
 Y INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分 (May help to improve bowel movements)</t>
   </si>
   <si>
+    <t>🇪🇬埃及</t>
+  </si>
+  <si>
     <t>Y Live microorganisms 菌种白名单</t>
   </si>
   <si>
+    <t>🇿🇦南非</t>
+  </si>
+  <si>
     <t>N Health Supplement</t>
   </si>
   <si>
+    <t>📚USP</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>LRa05 (ATCC PTA-126815)</t>
   </si>
   <si>
@@ -330,6 +258,14 @@
   </si>
   <si>
     <t>R0011 (CNCM I-1720)</t>
+  </si>
+  <si>
+    <t>Y 普通食品
+N 婴幼儿食品</t>
+  </si>
+  <si>
+    <t>Y 普通食品
+Y 婴幼儿食品</t>
   </si>
   <si>
     <t>Y FDA GRAS GRN. 1240
@@ -343,8 +279,69 @@
 Y FDA GRAS GRN. 288</t>
   </si>
   <si>
+    <t>N Novel Food/Non-Novel Food申报
+Y 天然健康产品申报</t>
+  </si>
+  <si>
+    <t>Y 食品法规1985申报（附表十二A第26A条益生菌培养物）</t>
+  </si>
+  <si>
+    <t>Y 可食用菌属名单</t>
+  </si>
+  <si>
+    <t>Y 食品添加剂 (LAB Concentrate)
+N 特定保健食品名单
+N 功能性表示食品（产品）申报</t>
+  </si>
+  <si>
+    <t>Y 食品添加剂 (LAB Concentrate)
+Y 特定保健食品名单
+Y 功能性表示食品（产品）申报</t>
+  </si>
+  <si>
+    <t>Y 食品添加剂 (LAB Concentrate)
+N 特定保健食品名单
+Y 功能性表示食品（产品）申报</t>
+  </si>
+  <si>
+    <t>Y Food Ingredients《韩国食品法典》
+Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》(May help to increase the number of beneficial bacteria and control harmful bacteria in the gut help to maintain healthy bowel function, maintain gut health)</t>
+  </si>
+  <si>
     <t>Y Food Ingredients《韩国食品法典》
 Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》(UREX (+RC-14): May help to proliferate vaginal beneficial flora and to suppress pathogenic bacteria)</t>
+  </si>
+  <si>
+    <t>Y Bacteria菌种白名单</t>
+  </si>
+  <si>
+    <t>Y Health Supplements 菌种白名单</t>
+  </si>
+  <si>
+    <t>BLa80 (ATCC PTA-126817)</t>
+  </si>
+  <si>
+    <t>Bb-12 (DSM 15954)</t>
+  </si>
+  <si>
+    <t>HN019 (DR10, ATCC SD 5674)</t>
+  </si>
+  <si>
+    <t>Bi-07 (ATCC SD 5220)</t>
+  </si>
+  <si>
+    <t>B420 (ATCC SD 6685)</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 1239
+（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 49（婴儿配方）
+Y FDA GRAS GRN. 856</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 445</t>
   </si>
   <si>
     <t>Y 食品法规1985申报（附表十二A第26A条益生菌培养物）
@@ -375,7 +372,6 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -455,19 +451,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -478,8 +465,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -835,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -869,400 +865,400 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>67</v>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1289,419 +1285,419 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1730,413 +1726,413 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eswhykay/Documents/Python/WeCompliance_site_package_vFinal4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF26BA6-4EB0-514D-83DA-9795F11FA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9DBE7-9FB6-F640-912A-59AA1378B8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="68800" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24400" yWindow="600" windowWidth="27580" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC99" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -66,13 +66,13 @@
   </si>
   <si>
     <t>Y FDA GRAS GRN. 526
-Y FDA GRAS GRN. 1177</t>
+Y FDA GRAS GRN. 1177（婴儿配方）</t>
   </si>
   <si>
     <t>Y FDA GRAS GRN. 601</t>
   </si>
   <si>
-    <t>Y FDA GRAS GRN. 597（非婴儿）
+    <t>Y FDA GRAS GRN. 597
 Y FDA GRAS GRN. 864（婴儿）</t>
   </si>
   <si>
@@ -120,14 +120,12 @@
 N 天然健康产品申报</t>
   </si>
   <si>
-    <t>Y Non-Novel Food申报</t>
-  </si>
-  <si>
-    <t>Y Novel Food申报</t>
-  </si>
-  <si>
     <t>Y Non-Novel Food申报
-Y 天然健康产品申报，NPN No.80093760</t>
+Y 天然健康产品申报</t>
+  </si>
+  <si>
+    <t>Y Novel Food申报
+Y 天然健康产品申报</t>
   </si>
   <si>
     <t>🇧🇷巴西</t>
@@ -245,38 +243,38 @@
     <t>Y</t>
   </si>
   <si>
-    <t>LRa05 (ATCC PTA-126815)</t>
-  </si>
-  <si>
-    <t>LGG (DSM 33156，ATCC 53103)</t>
-  </si>
-  <si>
-    <t>HN001 (DR20，ATCC SD5675)</t>
-  </si>
-  <si>
-    <t>GR-1</t>
-  </si>
-  <si>
-    <t>R0011 (CNCM I-1720)</t>
+    <t>BLa80 (ATCC PTA-126817)</t>
+  </si>
+  <si>
+    <t>Bb-12 (DSM 15954)</t>
+  </si>
+  <si>
+    <t>HN019 (DR10, ATCC SD 5674)</t>
+  </si>
+  <si>
+    <t>Bi-07 (ATCC SD 5220)</t>
+  </si>
+  <si>
+    <t>B420 (ATCC SD 6685)</t>
+  </si>
+  <si>
+    <t>Y 普通食品
+Y 婴幼儿食品</t>
   </si>
   <si>
     <t>Y 普通食品
 N 婴幼儿食品</t>
   </si>
   <si>
-    <t>Y 普通食品
-Y 婴幼儿食品</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1240
-（共通过8份鼠李糖乳酪杆菌申报，包括LRa05）</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1013</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 281（婴儿配方）
-Y FDA GRAS GRN. 288</t>
+    <t>Y FDA GRAS GRN. 1239
+（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 49（婴儿配方）
+Y FDA GRAS GRN. 856</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 445</t>
   </si>
   <si>
     <t>N Novel Food/Non-Novel Food申报
@@ -308,40 +306,40 @@
 Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》(May help to increase the number of beneficial bacteria and control harmful bacteria in the gut help to maintain healthy bowel function, maintain gut health)</t>
   </si>
   <si>
+    <t>Y Bacteria菌种白名单</t>
+  </si>
+  <si>
+    <t>Y Health Supplements 菌种白名单</t>
+  </si>
+  <si>
+    <t>LRa05 (ATCC PTA-126815)</t>
+  </si>
+  <si>
+    <t>LGG (DSM 33156，ATCC 53103)</t>
+  </si>
+  <si>
+    <t>HN001 (DR20，ATCC SD5675)</t>
+  </si>
+  <si>
+    <t>GR-1</t>
+  </si>
+  <si>
+    <t>R0011 (CNCM I-1720)</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 1240
+（共通过8份鼠李糖乳酪杆菌申报，包括LRa05）</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 1013</t>
+  </si>
+  <si>
+    <t>Y FDA GRAS GRN. 281（婴儿配方）
+Y FDA GRAS GRN. 288</t>
+  </si>
+  <si>
     <t>Y Food Ingredients《韩国食品法典》
 Y MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》(UREX (+RC-14): May help to proliferate vaginal beneficial flora and to suppress pathogenic bacteria)</t>
-  </si>
-  <si>
-    <t>Y Bacteria菌种白名单</t>
-  </si>
-  <si>
-    <t>Y Health Supplements 菌种白名单</t>
-  </si>
-  <si>
-    <t>BLa80 (ATCC PTA-126817)</t>
-  </si>
-  <si>
-    <t>Bb-12 (DSM 15954)</t>
-  </si>
-  <si>
-    <t>HN019 (DR10, ATCC SD 5674)</t>
-  </si>
-  <si>
-    <t>Bi-07 (ATCC SD 5220)</t>
-  </si>
-  <si>
-    <t>B420 (ATCC SD 6685)</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 1239
-（共通过11份动物双歧杆菌乳亚种申报，包括BLa80）</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 49（婴儿配方）
-Y FDA GRAS GRN. 856</t>
-  </si>
-  <si>
-    <t>Y FDA GRAS GRN. 445</t>
   </si>
   <si>
     <t>Y 食品法规1985申报（附表十二A第26A条益生菌培养物）
@@ -372,6 +370,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -456,10 +455,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,13 +468,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -803,7 +802,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +896,7 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1008,257 +1007,257 @@
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1276,8 +1275,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1305,16 +1307,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>70</v>
@@ -1325,38 +1327,38 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1364,19 +1366,19 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1424,23 +1426,23 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1448,256 +1450,256 @@
         <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>36</v>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1720,8 @@
     <col min="2" max="2" width="44.1640625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1726,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1749,10 +1752,10 @@
         <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>70</v>
@@ -1766,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1875,264 +1878,264 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>36</v>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eswhykay/Documents/Python/WeCompliance_site_package_vFinal4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eswhykay/Documents/Wecare/Summary/全球准入计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517649A-6DDD-C44F-AE80-0CC9E93AD6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE95D9-0A76-6C47-88EB-C1AA616E0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="68800" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -273,11 +273,15 @@
     <t>N 禁用，暂无申报渠道</t>
   </si>
   <si>
-    <t>N Monograph-Probiotics
+    <t>N Novel Food/Non-Novel Food申报
 N 天然健康产品申报</t>
   </si>
   <si>
-    <t>N Monograph-Probiotics
+    <t>Y Non-Novel Food申报
+Y 天然健康产品申报</t>
+  </si>
+  <si>
+    <t>Y Novel Food申报
 Y 天然健康产品申报</t>
   </si>
   <si>
@@ -905,7 +909,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>66</v>
@@ -1117,7 +1121,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>74</v>
@@ -1231,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>43</v>
@@ -1248,19 +1252,19 @@
         <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1268,19 +1272,19 @@
         <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -1288,19 +1292,19 @@
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1308,19 +1312,19 @@
         <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1328,19 +1332,19 @@
         <v>55</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1430,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1832,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1872,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2175,7 +2179,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>52</v>
